--- a/biology/Médecine/Patrick_Aeberhard/Patrick_Aeberhard.xlsx
+++ b/biology/Médecine/Patrick_Aeberhard/Patrick_Aeberhard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Patrick Aeberhard, né à Paris le 13 février 1945 est un cardiologue français.
-Il a principalement contribué à la création de Médecins sans frontières (1971), puis de Médecins du monde (1980)[1].
+Il a principalement contribué à la création de Médecins sans frontières (1971), puis de Médecins du monde (1980).
 </t>
         </is>
       </c>
@@ -512,16 +524,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Né à Paris le 13 février 1945 d’une mère irlandaise et d’un père suisse, Patrick Aeberhard est le cousin du pasteur suisse-romand Rodolphe Aeberhard[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Né à Paris le 13 février 1945 d’une mère irlandaise et d’un père suisse, Patrick Aeberhard est le cousin du pasteur suisse-romand Rodolphe Aeberhard.
 Il est cardiologue au centre cardiologique du Nord à Saint Denis, chef du service de réadaptation cardiaque depuis juin 2002.
 Il est médecin du CICR au Biafra en 1968.
 Il participe à la fondation de Médecins sans frontières puis de Médecins du monde.
-Président de Médecins du monde (de 1987 à 1989) et membre de sa direction de 1981 à 1995, Patrick Aeberhard a mené de nombreuses missions humanitaires depuis 1968 au Biafra[3] et en particulier au Liban, en Afghanistan, au Salvador, en Éthiopie, au Brésil, en Afrique du Sud, au Rwanda, en ex–Yougoslavie, en Irak, en Haïti.
+Président de Médecins du monde (de 1987 à 1989) et membre de sa direction de 1981 à 1995, Patrick Aeberhard a mené de nombreuses missions humanitaires depuis 1968 au Biafra et en particulier au Liban, en Afghanistan, au Salvador, en Éthiopie, au Brésil, en Afrique du Sud, au Rwanda, en ex–Yougoslavie, en Irak, en Haïti.
 Conseiller au cabinet de Bernard Kouchner, ministre de la Santé (1992-1993, 1997 -1999, 2001-2002), il est chargé de la toxicomanie, de l’exclusion puis de l’activité physique et sportive et de la prévention des conduites dopantes.
 En 2005, il devient  professeur des universités associé Paris 8, département de droit UFR2 droit de la santé. Il développe la notion de santé et droit de la personne et crée le diplôme universitaire « Santé, Urgence, Développement ».
-En 2014, il signe une lettre pour que l'« avortement soit libre » à l'appel de Médecins du monde dans le cadre de la campagne intitulée « Names-not-Numbers »[4].
+En 2014, il signe une lettre pour que l'« avortement soit libre » à l'appel de Médecins du monde dans le cadre de la campagne intitulée « Names-not-Numbers ».
 Il est membre :
 de la commission nationale consultative des droits de l'homme de 1989 à 1996 ;
 de la commission consultative des politiques sur les toxicomanies au ministère de la Santé de 1994 à 1997 ;
@@ -556,9 +570,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Chevalier de la Légion d’honneur en 1993[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Chevalier de la Légion d’honneur en 1993.</t>
         </is>
       </c>
     </row>
@@ -588,8 +604,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Coauteur
-Le Devoir d'Ingérence, avec Bernard Kouchner et Mario Bettati, Denoël, 1987.
+          <t>Coauteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Devoir d'Ingérence, avec Bernard Kouchner et Mario Bettati, Denoël, 1987.
 Droits de l'homme, droits des peuples, 1989, Guide pour l'information et l'éducation, Médiathèque de la communauté française de Belgique.
 Faciliter l'accès aux soins, Collection documents techniques de mission France, ed MDM, 1989.
 Si tous les enfants du monde, Albin Michel, 1989
@@ -608,9 +629,43 @@
 Toxics avec Bernard Kouchner, J.P.Daulouede, William Lowenstein, Bertrand Lebeau, Editions Odile Jacob, 2018.
 Droit et stratégies de l'action humanitaire avec Pierre-Olivier Chaumet, Editions Mare et Martin, 2018
 La réduction des risques chez les usagers de drogues : le rôle des ONG, avec Pierre-Olivier Chaumet et Bertrand Lebeau Lebovici, Editions LEH, 2019.
-Dans les fracas du monde, Calmann Levy, 2022
-Conseiller scientifique de documentaires
-Si tous les Enfants du Monde, CAPA, 28 minutes réalisé par Jérôme Caza, 1989.
+Dans les fracas du monde, Calmann Levy, 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Patrick_Aeberhard</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrick_Aeberhard</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Conseiller scientifique de documentaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Si tous les Enfants du Monde, CAPA, 28 minutes réalisé par Jérôme Caza, 1989.
 Armenia, Vipresse, 12 minutes, réalisé par Christoffe Barrèren, 1988.
 Homeless in New York, Sygma TC TV, 12 minutes, réalisé par Gilles de Mestre, 1988.
 La Santé de l'Apartheid, Sygma TV, 52 minutes en collaboration avec Gilles de Mestre et Philipp Brooks, 1987.
